--- a/TestMNIST/MatlabCodes/weight_1_iteration_gap_3.xlsx
+++ b/TestMNIST/MatlabCodes/weight_1_iteration_gap_3.xlsx
@@ -411,606 +411,606 @@
   <sheetData>
     <row r="1" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>-4.597642426424433E-3</v>
+        <v>-6.4504025489028581E-3</v>
       </c>
       <c r="B1">
-        <v>-2.4680213580607589E-3</v>
+        <v>0.98066620934905835</v>
       </c>
       <c r="C1">
-        <v>-1.3052759781086651E-2</v>
+        <v>-1.19863214902941E-2</v>
       </c>
       <c r="D1">
-        <v>-6.94103230909578E-3</v>
+        <v>-1.6207721772448242E-2</v>
       </c>
       <c r="E1">
-        <v>-1.074643960292474E-2</v>
+        <v>-5.8598968420517216E-3</v>
       </c>
       <c r="F1">
-        <v>-1.3531231228816897E-2</v>
+        <v>-3.6597770200784002E-2</v>
       </c>
       <c r="G1">
-        <v>0.99038611653112618</v>
+        <v>-1.169790902106695E-2</v>
       </c>
       <c r="H1">
-        <v>-5.5478211242832344E-3</v>
+        <v>-1.4110421963665932E-2</v>
       </c>
       <c r="I1">
-        <v>-5.5667072598157667E-3</v>
+        <v>-1.0216880691312283E-2</v>
       </c>
       <c r="J1">
-        <v>-8.5797053786377201E-3</v>
+        <v>-1.0193501179635595E-2</v>
       </c>
       <c r="K1">
-        <v>-3.2675013928813801E-3</v>
+        <v>-1.3228902677560784E-2</v>
       </c>
       <c r="L1">
-        <v>0.98796442139984419</v>
+        <v>0.97930093618373137</v>
       </c>
       <c r="M1">
-        <v>0.99394267802236147</v>
+        <v>-8.6782117927769881E-3</v>
       </c>
       <c r="N1">
-        <v>-5.0307362303002069E-3</v>
+        <v>-8.7754474581409215E-3</v>
       </c>
       <c r="O1">
-        <v>-1.5146797759246031E-2</v>
+        <v>-1.5883962289262508E-2</v>
       </c>
       <c r="P1">
-        <v>-5.640529838776635E-3</v>
+        <v>-2.1950572130098878E-2</v>
       </c>
       <c r="Q1">
-        <v>0.99204657592210566</v>
+        <v>-1.2828617042535273E-2</v>
       </c>
       <c r="R1">
-        <v>-6.427500708132642E-3</v>
+        <v>-2.8631710755552448E-2</v>
       </c>
       <c r="S1">
-        <v>0.99694407464997137</v>
+        <v>-1.8545741868695939E-2</v>
       </c>
       <c r="T1">
-        <v>-9.4591203614358185E-3</v>
+        <v>-3.3333838903449854E-2</v>
       </c>
       <c r="U1">
-        <v>-5.8979984944776921E-3</v>
+        <v>0.98950483623283281</v>
       </c>
       <c r="V1">
-        <v>-5.0746228784859203E-3</v>
+        <v>0.99122818234694754</v>
       </c>
       <c r="W1">
-        <v>-3.1992262674117324E-3</v>
+        <v>-1.2000092562800069E-2</v>
       </c>
       <c r="X1">
-        <v>-7.4683900580758767E-3</v>
+        <v>-1.2919420119327365E-2</v>
       </c>
       <c r="Y1">
-        <v>-8.2905704036459575E-3</v>
+        <v>-1.2577950587654114E-2</v>
       </c>
       <c r="Z1">
-        <v>-9.7074334684027087E-3</v>
+        <v>-6.2034473540487503E-3</v>
       </c>
       <c r="AA1">
-        <v>-9.0108060282898302E-3</v>
+        <v>-2.0667544479631698E-2</v>
       </c>
       <c r="AB1">
-        <v>-1.5476556804092465E-2</v>
+        <v>-1.5964217160853788E-2</v>
       </c>
       <c r="AC1">
-        <v>-6.7011322493134521E-3</v>
+        <v>0.98888832554917339</v>
       </c>
       <c r="AD1">
-        <v>-1.1112264004615418E-2</v>
+        <v>-1.0420416214200824E-2</v>
       </c>
       <c r="AE1">
-        <v>-5.0539283191546186E-3</v>
+        <v>-1.5299933778063893E-2</v>
       </c>
       <c r="AF1">
-        <v>0.99200869193739516</v>
+        <v>0.97061163176244436</v>
       </c>
       <c r="AG1">
-        <v>-9.0806714442170054E-3</v>
+        <v>-1.198312298118725E-2</v>
       </c>
       <c r="AH1">
-        <v>-6.8015001333035533E-3</v>
+        <v>-8.6452473506802192E-3</v>
       </c>
       <c r="AI1">
-        <v>-7.7584894788983397E-3</v>
+        <v>-1.0536508892805481E-2</v>
       </c>
       <c r="AJ1">
-        <v>-8.8876548852560334E-3</v>
+        <v>-6.4448814527411817E-3</v>
       </c>
       <c r="AK1">
-        <v>0.99252026004405047</v>
+        <v>-8.2213312694181077E-3</v>
       </c>
       <c r="AL1">
-        <v>-5.6307710718236917E-3</v>
+        <v>-1.1506005474051242E-2</v>
       </c>
       <c r="AM1">
-        <v>-1.2812917621385953E-2</v>
+        <v>-1.7806336610932179E-2</v>
       </c>
       <c r="AN1">
-        <v>-7.1199590847856745E-3</v>
+        <v>-2.6768957523729466E-2</v>
       </c>
       <c r="AO1">
-        <v>-5.7687737923505988E-3</v>
+        <v>-1.1488410332588133E-2</v>
       </c>
       <c r="AP1">
-        <v>-9.3973544453692E-3</v>
+        <v>-5.2115640975039079E-3</v>
       </c>
       <c r="AQ1">
-        <v>-4.564503910448269E-3</v>
+        <v>0.9953821604692259</v>
       </c>
       <c r="AR1">
-        <v>-1.0835986752912122E-2</v>
+        <v>-1.5676637159600743E-2</v>
       </c>
       <c r="AS1">
-        <v>-6.2124525218295737E-3</v>
+        <v>-2.1072937624592888E-2</v>
       </c>
       <c r="AT1">
-        <v>0.99327409326553495</v>
+        <v>-7.706164770793434E-3</v>
       </c>
       <c r="AU1">
-        <v>0.99295503487259917</v>
+        <v>-2.2808428278693914E-2</v>
       </c>
       <c r="AV1">
-        <v>-4.8223566904204568E-3</v>
+        <v>0.99418707731871458</v>
       </c>
       <c r="AW1">
-        <v>-8.6245181691222035E-3</v>
+        <v>-2.0065522596864293E-2</v>
       </c>
       <c r="AX1">
-        <v>-1.4311152445763699E-2</v>
+        <v>0.98533409386010395</v>
       </c>
       <c r="AY1">
-        <v>-8.5021947225125856E-3</v>
+        <v>-1.4972742081440086E-2</v>
       </c>
       <c r="AZ1">
-        <v>-5.72428679839148E-3</v>
+        <v>-1.8903750597335262E-2</v>
       </c>
       <c r="BA1">
-        <v>-8.1323302079607945E-3</v>
+        <v>-2.0650695321250266E-2</v>
       </c>
       <c r="BB1">
-        <v>0.9951891570564444</v>
+        <v>-3.141999179928992E-2</v>
       </c>
       <c r="BC1">
-        <v>-1.4924922092062361E-2</v>
+        <v>-9.6608410885072778E-3</v>
       </c>
       <c r="BD1">
-        <v>-9.9569697117440018E-3</v>
+        <v>0.98507637274401505</v>
       </c>
       <c r="BE1">
-        <v>-6.249375814774116E-3</v>
+        <v>-1.5835564572503225E-2</v>
       </c>
       <c r="BF1">
-        <v>-4.5683184555075614E-3</v>
+        <v>-2.8760826597347699E-2</v>
       </c>
       <c r="BG1">
-        <v>0.99205093952319134</v>
+        <v>-1.035577165001391E-2</v>
       </c>
       <c r="BH1">
-        <v>-6.4415646456150088E-3</v>
+        <v>-1.191482878189001E-2</v>
       </c>
       <c r="BI1">
-        <v>-8.2797541753659928E-3</v>
+        <v>0.99360519910308487</v>
       </c>
       <c r="BJ1">
-        <v>-5.3153926915259437E-3</v>
+        <v>-4.8018761704903727E-3</v>
       </c>
       <c r="BK1">
-        <v>-7.687995189560537E-3</v>
+        <v>0.99023135049095701</v>
       </c>
       <c r="BL1">
-        <v>-1.0636244969138365E-2</v>
+        <v>-9.3075512785842033E-3</v>
       </c>
       <c r="BM1">
-        <v>-1.0967322101887387E-2</v>
+        <v>-7.8217266874536801E-3</v>
       </c>
       <c r="BN1">
-        <v>-3.8113128189528824E-3</v>
+        <v>-7.972971160012143E-3</v>
       </c>
       <c r="BO1">
-        <v>-9.566816896747975E-3</v>
+        <v>-1.3040982048442944E-2</v>
       </c>
       <c r="BP1">
-        <v>-1.0474286209470243E-2</v>
+        <v>-1.8312163998991285E-2</v>
       </c>
       <c r="BQ1">
-        <v>-6.6211237802859743E-3</v>
+        <v>-2.4533619239460704E-2</v>
       </c>
       <c r="BR1">
-        <v>-1.4756784436251684E-2</v>
+        <v>-3.0561830880395137E-2</v>
       </c>
       <c r="BS1">
-        <v>-6.9091015627109264E-3</v>
+        <v>-2.0090279845705428E-2</v>
       </c>
       <c r="BT1">
-        <v>-7.6375139691177794E-3</v>
+        <v>0.99086974692173224</v>
       </c>
       <c r="BU1">
-        <v>-8.5346675954585047E-3</v>
+        <v>-2.1343920016180434E-2</v>
       </c>
       <c r="BV1">
-        <v>-9.9790288770933312E-3</v>
+        <v>-1.0832143285207698E-2</v>
       </c>
       <c r="BW1">
-        <v>-7.6512057762938967E-3</v>
+        <v>0.9629902111391434</v>
       </c>
       <c r="BX1">
-        <v>0.99604448907566279</v>
+        <v>-1.8932677333976761E-2</v>
       </c>
       <c r="BY1">
-        <v>-5.0686244539423419E-3</v>
+        <v>-7.3995506934350294E-3</v>
       </c>
       <c r="BZ1">
-        <v>-9.6993750297356355E-3</v>
+        <v>-1.1144692593576771E-2</v>
       </c>
       <c r="CA1">
-        <v>-9.520377339702497E-3</v>
+        <v>-1.4198038996972693E-2</v>
       </c>
       <c r="CB1">
-        <v>-4.4021432074787849E-3</v>
+        <v>-2.246470641695452E-2</v>
       </c>
       <c r="CC1">
-        <v>-6.0200478534742832E-3</v>
+        <v>0.99083814535127879</v>
       </c>
       <c r="CD1">
-        <v>-9.5419225218768312E-3</v>
+        <v>-1.3818485208436294E-2</v>
       </c>
       <c r="CE1">
-        <v>-5.5333308002695871E-3</v>
+        <v>-5.9207271515047868E-3</v>
       </c>
       <c r="CF1">
-        <v>-7.5049411412798309E-3</v>
+        <v>0.99306132309776118</v>
       </c>
       <c r="CG1">
-        <v>-8.4429072373739117E-3</v>
+        <v>-1.8492100471798951E-2</v>
       </c>
       <c r="CH1">
-        <v>-6.6312346742948341E-3</v>
+        <v>-1.4125327532368318E-2</v>
       </c>
       <c r="CI1">
-        <v>-6.4174751550170441E-3</v>
+        <v>-1.9590092891750864E-2</v>
       </c>
       <c r="CJ1">
-        <v>-1.0176189949015632E-2</v>
+        <v>-1.7508131933725479E-2</v>
       </c>
       <c r="CK1">
-        <v>-7.3406636155352936E-3</v>
+        <v>-3.1158406788846425E-2</v>
       </c>
       <c r="CL1">
-        <v>-9.9227530889950503E-3</v>
+        <v>-1.12551168066724E-2</v>
       </c>
       <c r="CM1">
-        <v>-1.710302159811573E-2</v>
+        <v>-1.3307974771696252E-2</v>
       </c>
       <c r="CN1">
-        <v>-8.1016290202345319E-3</v>
+        <v>-1.5499828232168004E-2</v>
       </c>
       <c r="CO1">
-        <v>-3.053022220093161E-3</v>
+        <v>-1.6053430893945873E-2</v>
       </c>
       <c r="CP1">
-        <v>-3.2419585489633675E-3</v>
+        <v>-1.3532107186406739E-2</v>
       </c>
       <c r="CQ1">
-        <v>-8.3656617222472168E-3</v>
+        <v>-3.4488373302490459E-2</v>
       </c>
       <c r="CR1">
-        <v>0.99436105764985616</v>
+        <v>-1.2261999536137203E-2</v>
       </c>
       <c r="CS1">
-        <v>0.99730213705535709</v>
+        <v>-2.0832137760713586E-2</v>
       </c>
       <c r="CT1">
-        <v>-1.1744521213508795E-2</v>
+        <v>-1.4416657991352047E-2</v>
       </c>
       <c r="CU1">
-        <v>-3.962329142215411E-3</v>
+        <v>-1.907986811211293E-2</v>
       </c>
       <c r="CV1">
-        <v>-9.066370944480949E-3</v>
+        <v>-7.4417104277832487E-3</v>
       </c>
     </row>
     <row r="2" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>-6.8811959782096154E-3</v>
+        <v>0.99834782686856316</v>
       </c>
       <c r="B2">
-        <v>-3.6028439704203765E-3</v>
+        <v>-4.8870282131557316E-3</v>
       </c>
       <c r="C2">
-        <v>-1.9511843275534832E-2</v>
+        <v>-2.9207890396417062E-3</v>
       </c>
       <c r="D2">
-        <v>-1.0516245052125133E-2</v>
+        <v>0.99598204586807459</v>
       </c>
       <c r="E2">
-        <v>-1.6225133513726796E-2</v>
+        <v>0.99859667699210908</v>
       </c>
       <c r="F2">
-        <v>-2.0290543810224389E-2</v>
+        <v>-9.1852375283296098E-3</v>
       </c>
       <c r="G2">
-        <v>-1.4494665673892657E-2</v>
+        <v>-2.8610648200679202E-3</v>
       </c>
       <c r="H2">
-        <v>-8.3496816234280222E-3</v>
+        <v>-3.5208111354968438E-3</v>
       </c>
       <c r="I2">
-        <v>-8.1846364379273024E-3</v>
+        <v>-2.5575542585713181E-3</v>
       </c>
       <c r="J2">
-        <v>0.98683821718957676</v>
+        <v>-2.6188735429413319E-3</v>
       </c>
       <c r="K2">
-        <v>0.99506238979550388</v>
+        <v>-3.268914715008224E-3</v>
       </c>
       <c r="L2">
-        <v>-1.7969665462761207E-2</v>
+        <v>-5.1787897668174676E-3</v>
       </c>
       <c r="M2">
-        <v>-8.9233032964941283E-3</v>
+        <v>0.99779193709872238</v>
       </c>
       <c r="N2">
-        <v>-7.4643839282315322E-3</v>
+        <v>-2.2189817114851907E-3</v>
       </c>
       <c r="O2">
-        <v>-2.267062634068483E-2</v>
+        <v>-4.01519515537542E-3</v>
       </c>
       <c r="P2">
-        <v>-8.3732494574300237E-3</v>
+        <v>-5.5199929126387281E-3</v>
       </c>
       <c r="Q2">
-        <v>-1.194306465043349E-2</v>
+        <v>-3.2378934701796642E-3</v>
       </c>
       <c r="R2">
-        <v>-9.7210859632449274E-3</v>
+        <v>-7.2107141158262679E-3</v>
       </c>
       <c r="S2">
-        <v>0.99548029873855481</v>
+        <v>-4.5881732976117895E-3</v>
       </c>
       <c r="T2">
-        <v>-1.4286697626276072E-2</v>
+        <v>0.99162969740169227</v>
       </c>
       <c r="U2">
-        <v>0.99123243749931189</v>
+        <v>-2.6476250718255917E-3</v>
       </c>
       <c r="V2">
-        <v>-7.6307197642960746E-3</v>
+        <v>-2.1071514086722777E-3</v>
       </c>
       <c r="W2">
-        <v>-4.8467378028807682E-3</v>
+        <v>-2.9493820864654103E-3</v>
       </c>
       <c r="X2">
-        <v>-1.1179614473690322E-2</v>
+        <v>-3.3032505499956994E-3</v>
       </c>
       <c r="Y2">
-        <v>-1.2600815903592882E-2</v>
+        <v>-3.1856300211065918E-3</v>
       </c>
       <c r="Z2">
-        <v>-1.4473961419730695E-2</v>
+        <v>-1.5149163330558828E-3</v>
       </c>
       <c r="AA2">
-        <v>0.98646902896415467</v>
+        <v>-5.2478276312444005E-3</v>
       </c>
       <c r="AB2">
-        <v>-2.3324848315467023E-2</v>
+        <v>-3.9355338786642696E-3</v>
       </c>
       <c r="AC2">
-        <v>-1.0130598156451846E-2</v>
+        <v>-2.7694454629834725E-3</v>
       </c>
       <c r="AD2">
-        <v>0.98353387930917213</v>
+        <v>-2.6243314317434471E-3</v>
       </c>
       <c r="AE2">
-        <v>-7.4793597056723084E-3</v>
+        <v>-3.7780447277469273E-3</v>
       </c>
       <c r="AF2">
-        <v>-1.1891699271143067E-2</v>
+        <v>-7.4283648451144392E-3</v>
       </c>
       <c r="AG2">
-        <v>0.98632521498004255</v>
+        <v>0.99702276492986963</v>
       </c>
       <c r="AH2">
-        <v>-1.0128954040204979E-2</v>
+        <v>-2.1993827629737833E-3</v>
       </c>
       <c r="AI2">
-        <v>-1.1699314927889783E-2</v>
+        <v>-2.622621468732593E-3</v>
       </c>
       <c r="AJ2">
-        <v>0.98626831163718354</v>
+        <v>0.99842535021164702</v>
       </c>
       <c r="AK2">
-        <v>0.98890632412510837</v>
+        <v>-2.0047454893189352E-3</v>
       </c>
       <c r="AL2">
-        <v>0.9914651761428267</v>
+        <v>-2.8616383436708809E-3</v>
       </c>
       <c r="AM2">
-        <v>0.98061632250429875</v>
+        <v>-4.3893589062938363E-3</v>
       </c>
       <c r="AN2">
-        <v>-1.0536625150163348E-2</v>
+        <v>-6.7515803129924298E-3</v>
       </c>
       <c r="AO2">
-        <v>0.99150670407620523</v>
+        <v>-2.836903517528909E-3</v>
       </c>
       <c r="AP2">
-        <v>-1.381288159650485E-2</v>
+        <v>-1.2848017510258215E-3</v>
       </c>
       <c r="AQ2">
-        <v>-6.8412571001918356E-3</v>
+        <v>-1.1006046244702659E-3</v>
       </c>
       <c r="AR2">
-        <v>0.98392744321071179</v>
+        <v>-3.9589122193311064E-3</v>
       </c>
       <c r="AS2">
-        <v>-9.4299686825960721E-3</v>
+        <v>-5.2480418735854637E-3</v>
       </c>
       <c r="AT2">
-        <v>-1.0099628654359042E-2</v>
+        <v>-1.9147354599405068E-3</v>
       </c>
       <c r="AU2">
-        <v>-1.0570432109352119E-2</v>
+        <v>-5.7205467291753728E-3</v>
       </c>
       <c r="AV2">
-        <v>-7.0593187207320827E-3</v>
+        <v>-1.4613393204559756E-3</v>
       </c>
       <c r="AW2">
-        <v>0.98688442011802024</v>
+        <v>-4.9668252620808356E-3</v>
       </c>
       <c r="AX2">
-        <v>0.97859293845708029</v>
+        <v>-3.6395847089472247E-3</v>
       </c>
       <c r="AY2">
-        <v>-1.2786833930304225E-2</v>
+        <v>0.99625748849497808</v>
       </c>
       <c r="AZ2">
-        <v>0.99144116414836991</v>
+        <v>0.99527582971849382</v>
       </c>
       <c r="BA2">
-        <v>-1.2375740593773556E-2</v>
+        <v>-5.2185201715164928E-3</v>
       </c>
       <c r="BB2">
-        <v>-7.214438592575978E-3</v>
+        <v>-7.9466762189207979E-3</v>
       </c>
       <c r="BC2">
-        <v>-2.2289266880037996E-2</v>
+        <v>-2.454583142046469E-3</v>
       </c>
       <c r="BD2">
-        <v>-1.4749820863938459E-2</v>
+        <v>0.99630497108196692</v>
       </c>
       <c r="BE2">
-        <v>-9.0924805915655726E-3</v>
+        <v>-3.9765919017942424E-3</v>
       </c>
       <c r="BF2">
-        <v>0.99319407694652351</v>
+        <v>-7.2301352915351167E-3</v>
       </c>
       <c r="BG2">
-        <v>-1.1912621878044333E-2</v>
+        <v>-2.5392163681093056E-3</v>
       </c>
       <c r="BH2">
-        <v>-9.7844461859036922E-3</v>
+        <v>-3.0033973956990145E-3</v>
       </c>
       <c r="BI2">
-        <v>-1.2724958262094799E-2</v>
+        <v>-1.6222055843765119E-3</v>
       </c>
       <c r="BJ2">
-        <v>-7.9085159760913896E-3</v>
+        <v>-1.2286440139371399E-3</v>
       </c>
       <c r="BK2">
-        <v>-1.1411412037237053E-2</v>
+        <v>0.99755884921995175</v>
       </c>
       <c r="BL2">
-        <v>-1.5883243206056809E-2</v>
+        <v>0.99771614932728314</v>
       </c>
       <c r="BM2">
-        <v>-1.622507281728534E-2</v>
+        <v>-1.9659006979968695E-3</v>
       </c>
       <c r="BN2">
-        <v>-5.8909349538788947E-3</v>
+        <v>-1.9975414984590829E-3</v>
       </c>
       <c r="BO2">
-        <v>0.98551129220424294</v>
+        <v>-3.2375241230661973E-3</v>
       </c>
       <c r="BP2">
-        <v>-1.5669619440555768E-2</v>
+        <v>0.9954117116984752</v>
       </c>
       <c r="BQ2">
-        <v>-1.0007584497490828E-2</v>
+        <v>-6.1958206221436156E-3</v>
       </c>
       <c r="BR2">
-        <v>-2.2190111177413555E-2</v>
+        <v>-7.736341512280435E-3</v>
       </c>
       <c r="BS2">
-        <v>-1.0418638634828045E-2</v>
+        <v>-4.9634503997779671E-3</v>
       </c>
       <c r="BT2">
-        <v>-1.1496667448539803E-2</v>
+        <v>-2.259242393405192E-3</v>
       </c>
       <c r="BU2">
-        <v>-1.2831604176281675E-2</v>
+        <v>0.99461801954864459</v>
       </c>
       <c r="BV2">
-        <v>0.98501030789297306</v>
+        <v>0.99729269692026767</v>
       </c>
       <c r="BW2">
-        <v>-1.155447286426191E-2</v>
+        <v>-9.2931192347905471E-3</v>
       </c>
       <c r="BX2">
-        <v>-5.9691896425293853E-3</v>
+        <v>-4.8623284612962217E-3</v>
       </c>
       <c r="BY2">
-        <v>-7.7287098101261886E-3</v>
+        <v>-1.8462693300767392E-3</v>
       </c>
       <c r="BZ2">
-        <v>-1.4837253456982023E-2</v>
+        <v>-2.8089857094220558E-3</v>
       </c>
       <c r="CA2">
-        <v>-1.3909235811833605E-2</v>
+        <v>0.99649920024418293</v>
       </c>
       <c r="CB2">
-        <v>-6.5605844319965795E-3</v>
+        <v>-5.5846697069008144E-3</v>
       </c>
       <c r="CC2">
-        <v>-8.9322360183602609E-3</v>
+        <v>0.99767218444365247</v>
       </c>
       <c r="CD2">
-        <v>-1.4195533343457325E-2</v>
+        <v>-3.41305094438991E-3</v>
       </c>
       <c r="CE2">
-        <v>-8.295129927224875E-3</v>
+        <v>-1.4593263032712303E-3</v>
       </c>
       <c r="CF2">
-        <v>-1.1102446560304858E-2</v>
+        <v>-1.700708860242543E-3</v>
       </c>
       <c r="CG2">
-        <v>-1.2341120791329544E-2</v>
+        <v>-4.7266802823130762E-3</v>
       </c>
       <c r="CH2">
-        <v>-9.7972047791515873E-3</v>
+        <v>-3.5888113516663266E-3</v>
       </c>
       <c r="CI2">
-        <v>-9.7137143204063317E-3</v>
+        <v>0.99496786625744216</v>
       </c>
       <c r="CJ2">
-        <v>-1.5147666167906986E-2</v>
+        <v>-4.390788441401899E-3</v>
       </c>
       <c r="CK2">
-        <v>-1.0926896586577707E-2</v>
+        <v>-7.7901743729516916E-3</v>
       </c>
       <c r="CL2">
-        <v>-1.4949053820642494E-2</v>
+        <v>0.99722962566637152</v>
       </c>
       <c r="CM2">
-        <v>-2.5661649112523371E-2</v>
+        <v>-3.4071835867211485E-3</v>
       </c>
       <c r="CN2">
-        <v>-1.1878722958485613E-2</v>
+        <v>-3.9797172045670194E-3</v>
       </c>
       <c r="CO2">
-        <v>-4.4651909396438974E-3</v>
+        <v>-3.989911973944423E-3</v>
       </c>
       <c r="CP2">
-        <v>-4.947561595039552E-3</v>
+        <v>-3.292458477051593E-3</v>
       </c>
       <c r="CQ2">
-        <v>-1.2812016448281477E-2</v>
+        <v>-8.6650597486387145E-3</v>
       </c>
       <c r="CR2">
-        <v>-8.6889703497998842E-3</v>
+        <v>-3.0212371232287865E-3</v>
       </c>
       <c r="CS2">
-        <v>-4.0378599478055567E-3</v>
+        <v>-5.3161468958278979E-3</v>
       </c>
       <c r="CT2">
-        <v>0.98232849800215483</v>
+        <v>-3.5824140823284244E-3</v>
       </c>
       <c r="CU2">
-        <v>-5.8038155764055972E-3</v>
+        <v>-4.741249721471677E-3</v>
       </c>
       <c r="CV2">
-        <v>-1.3807423973893588E-2</v>
+        <v>-1.8115421036353292E-3</v>
       </c>
     </row>
   </sheetData>

--- a/TestMNIST/MatlabCodes/weight_1_iteration_gap_3.xlsx
+++ b/TestMNIST/MatlabCodes/weight_1_iteration_gap_3.xlsx
@@ -411,606 +411,606 @@
   <sheetData>
     <row r="1" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>-6.4504025489028581E-3</v>
+        <v>0.98664637411990475</v>
       </c>
       <c r="B1">
-        <v>0.98066620934905835</v>
+        <v>-1.4286745014970487E-2</v>
       </c>
       <c r="C1">
-        <v>-1.19863214902941E-2</v>
+        <v>-1.4854278269176249E-2</v>
       </c>
       <c r="D1">
-        <v>-1.6207721772448242E-2</v>
+        <v>-1.1379887435091853E-2</v>
       </c>
       <c r="E1">
-        <v>-5.8598968420517216E-3</v>
+        <v>-2.4855316282409848E-2</v>
       </c>
       <c r="F1">
-        <v>-3.6597770200784002E-2</v>
+        <v>-1.9484112134156142E-2</v>
       </c>
       <c r="G1">
-        <v>-1.169790902106695E-2</v>
+        <v>-1.5986943410850381E-2</v>
       </c>
       <c r="H1">
-        <v>-1.4110421963665932E-2</v>
+        <v>0.99425779050370278</v>
       </c>
       <c r="I1">
-        <v>-1.0216880691312283E-2</v>
+        <v>-2.4311529802082087E-2</v>
       </c>
       <c r="J1">
-        <v>-1.0193501179635595E-2</v>
+        <v>-2.2070568924394986E-2</v>
       </c>
       <c r="K1">
-        <v>-1.3228902677560784E-2</v>
+        <v>-2.2044064232643899E-2</v>
       </c>
       <c r="L1">
-        <v>0.97930093618373137</v>
+        <v>-1.5505863396683389E-2</v>
       </c>
       <c r="M1">
-        <v>-8.6782117927769881E-3</v>
+        <v>-1.0179593944384575E-2</v>
       </c>
       <c r="N1">
-        <v>-8.7754474581409215E-3</v>
+        <v>-6.5318124554546841E-3</v>
       </c>
       <c r="O1">
-        <v>-1.5883962289262508E-2</v>
+        <v>-2.3871686114865991E-2</v>
       </c>
       <c r="P1">
-        <v>-2.1950572130098878E-2</v>
+        <v>-3.7426352163404342E-2</v>
       </c>
       <c r="Q1">
-        <v>-1.2828617042535273E-2</v>
+        <v>-1.4669638585753176E-2</v>
       </c>
       <c r="R1">
-        <v>-2.8631710755552448E-2</v>
+        <v>-2.725966295578253E-2</v>
       </c>
       <c r="S1">
-        <v>-1.8545741868695939E-2</v>
+        <v>0.99145710504894957</v>
       </c>
       <c r="T1">
-        <v>-3.3333838903449854E-2</v>
+        <v>-2.5143217144756175E-2</v>
       </c>
       <c r="U1">
-        <v>0.98950483623283281</v>
+        <v>-1.6058742413290403E-2</v>
       </c>
       <c r="V1">
-        <v>0.99122818234694754</v>
+        <v>0.9894243606042723</v>
       </c>
       <c r="W1">
-        <v>-1.2000092562800069E-2</v>
+        <v>-1.263906833536683E-2</v>
       </c>
       <c r="X1">
-        <v>-1.2919420119327365E-2</v>
+        <v>0.97801316199586352</v>
       </c>
       <c r="Y1">
-        <v>-1.2577950587654114E-2</v>
+        <v>-1.9411081964487226E-2</v>
       </c>
       <c r="Z1">
-        <v>-6.2034473540487503E-3</v>
+        <v>0.97779641241097004</v>
       </c>
       <c r="AA1">
-        <v>-2.0667544479631698E-2</v>
+        <v>-3.7490637102067764E-2</v>
       </c>
       <c r="AB1">
-        <v>-1.5964217160853788E-2</v>
+        <v>0.98783310831800852</v>
       </c>
       <c r="AC1">
-        <v>0.98888832554917339</v>
+        <v>-3.2786452356621747E-2</v>
       </c>
       <c r="AD1">
-        <v>-1.0420416214200824E-2</v>
+        <v>-9.1726723185309115E-3</v>
       </c>
       <c r="AE1">
-        <v>-1.5299933778063893E-2</v>
+        <v>-1.7618637861345043E-2</v>
       </c>
       <c r="AF1">
-        <v>0.97061163176244436</v>
+        <v>-1.3715625904831564E-2</v>
       </c>
       <c r="AG1">
-        <v>-1.198312298118725E-2</v>
+        <v>0.97198770607569784</v>
       </c>
       <c r="AH1">
-        <v>-8.6452473506802192E-3</v>
+        <v>-2.0837035127614874E-2</v>
       </c>
       <c r="AI1">
-        <v>-1.0536508892805481E-2</v>
+        <v>0.97801627161376781</v>
       </c>
       <c r="AJ1">
-        <v>-6.4448814527411817E-3</v>
+        <v>0.98453581973357429</v>
       </c>
       <c r="AK1">
-        <v>-8.2213312694181077E-3</v>
+        <v>-1.6037769543771445E-2</v>
       </c>
       <c r="AL1">
-        <v>-1.1506005474051242E-2</v>
+        <v>0.97906434776296869</v>
       </c>
       <c r="AM1">
-        <v>-1.7806336610932179E-2</v>
+        <v>-2.3439877759849719E-2</v>
       </c>
       <c r="AN1">
-        <v>-2.6768957523729466E-2</v>
+        <v>-1.7455712922869314E-2</v>
       </c>
       <c r="AO1">
-        <v>-1.1488410332588133E-2</v>
+        <v>-3.4976952925799068E-2</v>
       </c>
       <c r="AP1">
-        <v>-5.2115640975039079E-3</v>
+        <v>-1.3704868258657117E-2</v>
       </c>
       <c r="AQ1">
-        <v>0.9953821604692259</v>
+        <v>-9.5803781242888644E-3</v>
       </c>
       <c r="AR1">
-        <v>-1.5676637159600743E-2</v>
+        <v>-1.5503753526335226E-2</v>
       </c>
       <c r="AS1">
-        <v>-2.1072937624592888E-2</v>
+        <v>-4.4799240475854032E-3</v>
       </c>
       <c r="AT1">
-        <v>-7.706164770793434E-3</v>
+        <v>0.98530499155569051</v>
       </c>
       <c r="AU1">
-        <v>-2.2808428278693914E-2</v>
+        <v>-1.902842295576513E-2</v>
       </c>
       <c r="AV1">
-        <v>0.99418707731871458</v>
+        <v>-1.3573337943315826E-2</v>
       </c>
       <c r="AW1">
-        <v>-2.0065522596864293E-2</v>
+        <v>-1.7404679660836433E-2</v>
       </c>
       <c r="AX1">
-        <v>0.98533409386010395</v>
+        <v>-1.519506167533022E-2</v>
       </c>
       <c r="AY1">
-        <v>-1.4972742081440086E-2</v>
+        <v>-1.4671631512403178E-2</v>
       </c>
       <c r="AZ1">
-        <v>-1.8903750597335262E-2</v>
+        <v>-2.144625277336059E-2</v>
       </c>
       <c r="BA1">
-        <v>-2.0650695321250266E-2</v>
+        <v>-2.7439774650358649E-2</v>
       </c>
       <c r="BB1">
-        <v>-3.141999179928992E-2</v>
+        <v>-8.1356831549921488E-3</v>
       </c>
       <c r="BC1">
-        <v>-9.6608410885072778E-3</v>
+        <v>-1.7185391241795404E-2</v>
       </c>
       <c r="BD1">
-        <v>0.98507637274401505</v>
+        <v>0.98750943014648052</v>
       </c>
       <c r="BE1">
-        <v>-1.5835564572503225E-2</v>
+        <v>-1.6988862969480257E-2</v>
       </c>
       <c r="BF1">
-        <v>-2.8760826597347699E-2</v>
+        <v>-9.4376001516760476E-3</v>
       </c>
       <c r="BG1">
-        <v>-1.035577165001391E-2</v>
+        <v>0.99427528251943009</v>
       </c>
       <c r="BH1">
-        <v>-1.191482878189001E-2</v>
+        <v>-4.8341236035809986E-3</v>
       </c>
       <c r="BI1">
-        <v>0.99360519910308487</v>
+        <v>-1.1096971780559024E-2</v>
       </c>
       <c r="BJ1">
-        <v>-4.8018761704903727E-3</v>
+        <v>0.98193265969542787</v>
       </c>
       <c r="BK1">
-        <v>0.99023135049095701</v>
+        <v>-1.3507198310030347E-2</v>
       </c>
       <c r="BL1">
-        <v>-9.3075512785842033E-3</v>
+        <v>0.9896093437288066</v>
       </c>
       <c r="BM1">
-        <v>-7.8217266874536801E-3</v>
+        <v>-1.5801740999593823E-2</v>
       </c>
       <c r="BN1">
-        <v>-7.972971160012143E-3</v>
+        <v>-1.3353670568753534E-2</v>
       </c>
       <c r="BO1">
-        <v>-1.3040982048442944E-2</v>
+        <v>-2.3941684549812499E-2</v>
       </c>
       <c r="BP1">
-        <v>-1.8312163998991285E-2</v>
+        <v>-2.479157296654393E-2</v>
       </c>
       <c r="BQ1">
-        <v>-2.4533619239460704E-2</v>
+        <v>0.98459461677799465</v>
       </c>
       <c r="BR1">
-        <v>-3.0561830880395137E-2</v>
+        <v>-1.1328035499101727E-2</v>
       </c>
       <c r="BS1">
-        <v>-2.0090279845705428E-2</v>
+        <v>-1.7309727049769897E-2</v>
       </c>
       <c r="BT1">
-        <v>0.99086974692173224</v>
+        <v>0.97864271109058931</v>
       </c>
       <c r="BU1">
-        <v>-2.1343920016180434E-2</v>
+        <v>-1.6487600518937183E-2</v>
       </c>
       <c r="BV1">
-        <v>-1.0832143285207698E-2</v>
+        <v>0.99139486543781918</v>
       </c>
       <c r="BW1">
-        <v>0.9629902111391434</v>
+        <v>-2.9957942397707944E-2</v>
       </c>
       <c r="BX1">
-        <v>-1.8932677333976761E-2</v>
+        <v>-3.19637376743553E-2</v>
       </c>
       <c r="BY1">
-        <v>-7.3995506934350294E-3</v>
+        <v>-8.9629151654007332E-3</v>
       </c>
       <c r="BZ1">
-        <v>-1.1144692593576771E-2</v>
+        <v>0.98840729549122774</v>
       </c>
       <c r="CA1">
-        <v>-1.4198038996972693E-2</v>
+        <v>-8.8892090457374073E-3</v>
       </c>
       <c r="CB1">
-        <v>-2.246470641695452E-2</v>
+        <v>-1.6744038398397262E-2</v>
       </c>
       <c r="CC1">
-        <v>0.99083814535127879</v>
+        <v>0.9772082993248038</v>
       </c>
       <c r="CD1">
-        <v>-1.3818485208436294E-2</v>
+        <v>-2.7176772568400422E-2</v>
       </c>
       <c r="CE1">
-        <v>-5.9207271515047868E-3</v>
+        <v>-1.9852767204630684E-2</v>
       </c>
       <c r="CF1">
-        <v>0.99306132309776118</v>
+        <v>-2.5301520901100761E-2</v>
       </c>
       <c r="CG1">
-        <v>-1.8492100471798951E-2</v>
+        <v>-1.0299210151462557E-2</v>
       </c>
       <c r="CH1">
-        <v>-1.4125327532368318E-2</v>
+        <v>-1.2083276848252682E-2</v>
       </c>
       <c r="CI1">
-        <v>-1.9590092891750864E-2</v>
+        <v>-1.1334917177616272E-2</v>
       </c>
       <c r="CJ1">
-        <v>-1.7508131933725479E-2</v>
+        <v>0.98080016026461059</v>
       </c>
       <c r="CK1">
-        <v>-3.1158406788846425E-2</v>
+        <v>-1.0757942931194833E-2</v>
       </c>
       <c r="CL1">
-        <v>-1.12551168066724E-2</v>
+        <v>-2.1449025007332909E-2</v>
       </c>
       <c r="CM1">
-        <v>-1.3307974771696252E-2</v>
+        <v>0.97980044325850735</v>
       </c>
       <c r="CN1">
-        <v>-1.5499828232168004E-2</v>
+        <v>-2.3534170865208388E-2</v>
       </c>
       <c r="CO1">
-        <v>-1.6053430893945873E-2</v>
+        <v>-1.7456703391012504E-2</v>
       </c>
       <c r="CP1">
-        <v>-1.3532107186406739E-2</v>
+        <v>-1.1467438857035203E-2</v>
       </c>
       <c r="CQ1">
-        <v>-3.4488373302490459E-2</v>
+        <v>-2.7241224068711819E-2</v>
       </c>
       <c r="CR1">
-        <v>-1.2261999536137203E-2</v>
+        <v>-1.1991064844808908E-2</v>
       </c>
       <c r="CS1">
-        <v>-2.0832137760713586E-2</v>
+        <v>-1.1822787537477472E-2</v>
       </c>
       <c r="CT1">
-        <v>-1.4416657991352047E-2</v>
+        <v>-1.2563671988061518E-2</v>
       </c>
       <c r="CU1">
-        <v>-1.907986811211293E-2</v>
+        <v>-2.4035749667920898E-2</v>
       </c>
       <c r="CV1">
-        <v>-7.4417104277832487E-3</v>
+        <v>-1.375477072040404E-2</v>
       </c>
     </row>
     <row r="2" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>0.99834782686856316</v>
+        <v>-1.5242804047821406E-3</v>
       </c>
       <c r="B2">
-        <v>-4.8870282131557316E-3</v>
+        <v>-1.5682410913208295E-3</v>
       </c>
       <c r="C2">
-        <v>-2.9207890396417062E-3</v>
+        <v>-1.6273211972283078E-3</v>
       </c>
       <c r="D2">
-        <v>0.99598204586807459</v>
+        <v>-1.2057615679017767E-3</v>
       </c>
       <c r="E2">
-        <v>0.99859667699210908</v>
+        <v>-2.7887486606467675E-3</v>
       </c>
       <c r="F2">
-        <v>-9.1852375283296098E-3</v>
+        <v>-2.1523222742965663E-3</v>
       </c>
       <c r="G2">
-        <v>-2.8610648200679202E-3</v>
+        <v>-1.8023419060136001E-3</v>
       </c>
       <c r="H2">
-        <v>-3.5208111354968438E-3</v>
+        <v>-6.5725248234704554E-4</v>
       </c>
       <c r="I2">
-        <v>-2.5575542585713181E-3</v>
+        <v>-2.7830000032162319E-3</v>
       </c>
       <c r="J2">
-        <v>-2.6188735429413319E-3</v>
+        <v>-2.4262477490738124E-3</v>
       </c>
       <c r="K2">
-        <v>-3.268914715008224E-3</v>
+        <v>0.99758286178289712</v>
       </c>
       <c r="L2">
-        <v>-5.1787897668174676E-3</v>
+        <v>-1.753773371596866E-3</v>
       </c>
       <c r="M2">
-        <v>0.99779193709872238</v>
+        <v>-1.1640017877548327E-3</v>
       </c>
       <c r="N2">
-        <v>-2.2189817114851907E-3</v>
+        <v>-6.5766219651351167E-4</v>
       </c>
       <c r="O2">
-        <v>-4.01519515537542E-3</v>
+        <v>-2.637816731246584E-3</v>
       </c>
       <c r="P2">
-        <v>-5.5199929126387281E-3</v>
+        <v>0.99582599637350855</v>
       </c>
       <c r="Q2">
-        <v>-3.2378934701796642E-3</v>
+        <v>-1.650850640944885E-3</v>
       </c>
       <c r="R2">
-        <v>-7.2107141158262679E-3</v>
+        <v>-3.1173331937969346E-3</v>
       </c>
       <c r="S2">
-        <v>-4.5881732976117895E-3</v>
+        <v>-9.7159564136582472E-4</v>
       </c>
       <c r="T2">
-        <v>0.99162969740169227</v>
+        <v>-2.7787407913891829E-3</v>
       </c>
       <c r="U2">
-        <v>-2.6476250718255917E-3</v>
+        <v>-1.8185094791325616E-3</v>
       </c>
       <c r="V2">
-        <v>-2.1071514086722777E-3</v>
+        <v>-1.1993044175407997E-3</v>
       </c>
       <c r="W2">
-        <v>-2.9493820864654103E-3</v>
+        <v>-1.4455389053131577E-3</v>
       </c>
       <c r="X2">
-        <v>-3.3032505499956994E-3</v>
+        <v>-2.4919283526912404E-3</v>
       </c>
       <c r="Y2">
-        <v>-3.1856300211065918E-3</v>
+        <v>-2.2112071474562661E-3</v>
       </c>
       <c r="Z2">
-        <v>-1.5149163330558828E-3</v>
+        <v>0.99755813684213923</v>
       </c>
       <c r="AA2">
-        <v>-5.2478276312444005E-3</v>
+        <v>-4.1929598132504882E-3</v>
       </c>
       <c r="AB2">
-        <v>-3.9355338786642696E-3</v>
+        <v>0.99869205254959037</v>
       </c>
       <c r="AC2">
-        <v>-2.7694454629834725E-3</v>
+        <v>-3.7299966421302207E-3</v>
       </c>
       <c r="AD2">
-        <v>-2.6243314317434471E-3</v>
+        <v>-1.0253863593865772E-3</v>
       </c>
       <c r="AE2">
-        <v>-3.7780447277469273E-3</v>
+        <v>-1.9565680473586974E-3</v>
       </c>
       <c r="AF2">
-        <v>-7.4283648451144392E-3</v>
+        <v>-1.5155554610171373E-3</v>
       </c>
       <c r="AG2">
-        <v>0.99702276492986963</v>
+        <v>-3.1785090807823308E-3</v>
       </c>
       <c r="AH2">
-        <v>-2.1993827629737833E-3</v>
+        <v>0.99768824949794266</v>
       </c>
       <c r="AI2">
-        <v>-2.622621468732593E-3</v>
+        <v>0.99749818163388915</v>
       </c>
       <c r="AJ2">
-        <v>0.99842535021164702</v>
+        <v>-1.6776663923837338E-3</v>
       </c>
       <c r="AK2">
-        <v>-2.0047454893189352E-3</v>
+        <v>-1.8317132687677012E-3</v>
       </c>
       <c r="AL2">
-        <v>-2.8616383436708809E-3</v>
+        <v>-2.3915960021250204E-3</v>
       </c>
       <c r="AM2">
-        <v>-4.3893589062938363E-3</v>
+        <v>-2.6800350289554005E-3</v>
       </c>
       <c r="AN2">
-        <v>-6.7515803129924298E-3</v>
+        <v>0.99808434660157119</v>
       </c>
       <c r="AO2">
-        <v>-2.836903517528909E-3</v>
+        <v>0.99599690027047161</v>
       </c>
       <c r="AP2">
-        <v>-1.2848017510258215E-3</v>
+        <v>-1.5655759601631578E-3</v>
       </c>
       <c r="AQ2">
-        <v>-1.1006046244702659E-3</v>
+        <v>0.99890379373046978</v>
       </c>
       <c r="AR2">
-        <v>-3.9589122193311064E-3</v>
+        <v>-1.7287407232506446E-3</v>
       </c>
       <c r="AS2">
-        <v>-5.2480418735854637E-3</v>
+        <v>0.99948840366722658</v>
       </c>
       <c r="AT2">
-        <v>-1.9147354599405068E-3</v>
+        <v>-1.6822037160373138E-3</v>
       </c>
       <c r="AU2">
-        <v>-5.7205467291753728E-3</v>
+        <v>-2.1319935563789368E-3</v>
       </c>
       <c r="AV2">
-        <v>-1.4613393204559756E-3</v>
+        <v>-1.5331728492422138E-3</v>
       </c>
       <c r="AW2">
-        <v>-4.9668252620808356E-3</v>
+        <v>-1.9772381705248539E-3</v>
       </c>
       <c r="AX2">
-        <v>-3.6395847089472247E-3</v>
+        <v>0.9982719618000585</v>
       </c>
       <c r="AY2">
-        <v>0.99625748849497808</v>
+        <v>-1.6456176074703642E-3</v>
       </c>
       <c r="AZ2">
-        <v>0.99527582971849382</v>
+        <v>0.9975719288318895</v>
       </c>
       <c r="BA2">
-        <v>-5.2185201715164928E-3</v>
+        <v>-3.0308096110189648E-3</v>
       </c>
       <c r="BB2">
-        <v>-7.9466762189207979E-3</v>
+        <v>-9.0682278282905738E-4</v>
       </c>
       <c r="BC2">
-        <v>-2.454583142046469E-3</v>
+        <v>-1.9427055311881131E-3</v>
       </c>
       <c r="BD2">
-        <v>0.99630497108196692</v>
+        <v>-1.4183762159510542E-3</v>
       </c>
       <c r="BE2">
-        <v>-3.9765919017942424E-3</v>
+        <v>-1.9314103316654264E-3</v>
       </c>
       <c r="BF2">
-        <v>-7.2301352915351167E-3</v>
+        <v>0.99897851671919446</v>
       </c>
       <c r="BG2">
-        <v>-2.5392163681093056E-3</v>
+        <v>-6.5167406288531781E-4</v>
       </c>
       <c r="BH2">
-        <v>-3.0033973956990145E-3</v>
+        <v>-5.5337848917495801E-4</v>
       </c>
       <c r="BI2">
-        <v>-1.6222055843765119E-3</v>
+        <v>-1.2673284400729564E-3</v>
       </c>
       <c r="BJ2">
-        <v>-1.2286440139371399E-3</v>
+        <v>-2.0118469557894813E-3</v>
       </c>
       <c r="BK2">
-        <v>0.99755884921995175</v>
+        <v>-1.5433688103520379E-3</v>
       </c>
       <c r="BL2">
-        <v>0.99771614932728314</v>
+        <v>0.99882016955112085</v>
       </c>
       <c r="BM2">
-        <v>-1.9659006979968695E-3</v>
+        <v>-1.7795055440703329E-3</v>
       </c>
       <c r="BN2">
-        <v>-1.9975414984590829E-3</v>
+        <v>0.99848385783368199</v>
       </c>
       <c r="BO2">
-        <v>-3.2375241230661973E-3</v>
+        <v>-2.6300643439894958E-3</v>
       </c>
       <c r="BP2">
-        <v>0.9954117116984752</v>
+        <v>-2.7950952804286023E-3</v>
       </c>
       <c r="BQ2">
-        <v>-6.1958206221436156E-3</v>
+        <v>-1.7529157526240664E-3</v>
       </c>
       <c r="BR2">
-        <v>-7.736341512280435E-3</v>
+        <v>-1.2260757676444615E-3</v>
       </c>
       <c r="BS2">
-        <v>-4.9634503997779671E-3</v>
+        <v>-1.9812241805309766E-3</v>
       </c>
       <c r="BT2">
-        <v>-2.259242393405192E-3</v>
+        <v>-2.3680681846866931E-3</v>
       </c>
       <c r="BU2">
-        <v>0.99461801954864459</v>
+        <v>-1.8176498405149011E-3</v>
       </c>
       <c r="BV2">
-        <v>0.99729269692026767</v>
+        <v>-9.7773702190872354E-4</v>
       </c>
       <c r="BW2">
-        <v>-9.2931192347905471E-3</v>
+        <v>-3.3383875491694204E-3</v>
       </c>
       <c r="BX2">
-        <v>-4.8623284612962217E-3</v>
+        <v>-3.5863702758403208E-3</v>
       </c>
       <c r="BY2">
-        <v>-1.8462693300767392E-3</v>
+        <v>-1.0149002576209443E-3</v>
       </c>
       <c r="BZ2">
-        <v>-2.8089857094220558E-3</v>
+        <v>0.99867840265039287</v>
       </c>
       <c r="CA2">
-        <v>0.99649920024418293</v>
+        <v>-9.4605073190815641E-4</v>
       </c>
       <c r="CB2">
-        <v>-5.5846697069008144E-3</v>
+        <v>-1.8150598157612434E-3</v>
       </c>
       <c r="CC2">
-        <v>0.99767218444365247</v>
+        <v>-2.5780607930181968E-3</v>
       </c>
       <c r="CD2">
-        <v>-3.41305094438991E-3</v>
+        <v>-3.077197334253563E-3</v>
       </c>
       <c r="CE2">
-        <v>-1.4593263032712303E-3</v>
+        <v>-2.2040969345365497E-3</v>
       </c>
       <c r="CF2">
-        <v>-1.700708860242543E-3</v>
+        <v>-2.8960750667359992E-3</v>
       </c>
       <c r="CG2">
-        <v>-4.7266802823130762E-3</v>
+        <v>0.9988253929162354</v>
       </c>
       <c r="CH2">
-        <v>-3.5888113516663266E-3</v>
+        <v>-1.3801222460955672E-3</v>
       </c>
       <c r="CI2">
-        <v>0.99496786625744216</v>
+        <v>-1.2804101091285721E-3</v>
       </c>
       <c r="CJ2">
-        <v>-4.390788441401899E-3</v>
+        <v>-2.1335397685957151E-3</v>
       </c>
       <c r="CK2">
-        <v>-7.7901743729516916E-3</v>
+        <v>-1.2309328276874361E-3</v>
       </c>
       <c r="CL2">
-        <v>0.99722962566637152</v>
+        <v>-2.4517144942276053E-3</v>
       </c>
       <c r="CM2">
-        <v>-3.4071835867211485E-3</v>
+        <v>-2.2733747349140418E-3</v>
       </c>
       <c r="CN2">
-        <v>-3.9797172045670194E-3</v>
+        <v>0.99735001424330993</v>
       </c>
       <c r="CO2">
-        <v>-3.989911973944423E-3</v>
+        <v>-1.9978692128400518E-3</v>
       </c>
       <c r="CP2">
-        <v>-3.292458477051593E-3</v>
+        <v>-1.2801971911260521E-3</v>
       </c>
       <c r="CQ2">
-        <v>-8.6650597486387145E-3</v>
+        <v>-3.0635598733961288E-3</v>
       </c>
       <c r="CR2">
-        <v>-3.0212371232287865E-3</v>
+        <v>-1.3074558859032508E-3</v>
       </c>
       <c r="CS2">
-        <v>-5.3161468958278979E-3</v>
+        <v>-1.3416632029810854E-3</v>
       </c>
       <c r="CT2">
-        <v>-3.5824140823284244E-3</v>
+        <v>0.9986168042877247</v>
       </c>
       <c r="CU2">
-        <v>-4.741249721471677E-3</v>
+        <v>-2.7514470805758075E-3</v>
       </c>
       <c r="CV2">
-        <v>-1.8115421036353292E-3</v>
+        <v>-1.4915223272152134E-3</v>
       </c>
     </row>
   </sheetData>
